--- a/stock_portfolio_report.xlsx
+++ b/stock_portfolio_report.xlsx
@@ -477,19 +477,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254.1853448275862</v>
+        <v>245.5980392156863</v>
       </c>
       <c r="C2" t="n">
         <v>286.3500061035156</v>
       </c>
       <c r="D2" t="n">
-        <v>1865.550354003906</v>
+        <v>2078.350311279297</v>
       </c>
       <c r="E2" t="n">
-        <v>12.65401878213974</v>
+        <v>16.59295286638694</v>
       </c>
       <c r="F2" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -846,17 +846,17 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>169271.3013916016</v>
+        <v>167266.851348877</v>
       </c>
       <c r="D18" t="n">
-        <v>6335.60139160158</v>
+        <v>6548.401348876941</v>
       </c>
       <c r="E18" t="n">
-        <v>3.888405912026389</v>
+        <v>4.074455265638102</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>162935.7</v>
+        <v>160718.45</v>
       </c>
     </row>
   </sheetData>

--- a/stock_portfolio_report.xlsx
+++ b/stock_portfolio_report.xlsx
@@ -480,13 +480,13 @@
         <v>245.5980392156863</v>
       </c>
       <c r="C2" t="n">
-        <v>286.3500061035156</v>
+        <v>292.5</v>
       </c>
       <c r="D2" t="n">
-        <v>2078.350311279297</v>
+        <v>2392</v>
       </c>
       <c r="E2" t="n">
-        <v>16.59295286638694</v>
+        <v>19.09704203425013</v>
       </c>
       <c r="F2" t="n">
         <v>51</v>
@@ -503,13 +503,13 @@
         <v>1452.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1757.849975585938</v>
+        <v>1750.050048828125</v>
       </c>
       <c r="D3" t="n">
-        <v>3057.999755859375</v>
+        <v>2980.00048828125</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05987917674581</v>
+        <v>20.52271263579939</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
@@ -526,13 +526,13 @@
         <v>2346.85</v>
       </c>
       <c r="C4" t="n">
-        <v>2521.35009765625</v>
+        <v>2511</v>
       </c>
       <c r="D4" t="n">
-        <v>872.50048828125</v>
+        <v>820.75</v>
       </c>
       <c r="E4" t="n">
-        <v>7.435502808285574</v>
+        <v>6.994481965187378</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
@@ -549,13 +549,13 @@
         <v>1421.03</v>
       </c>
       <c r="C5" t="n">
-        <v>1305.300048828125</v>
+        <v>1306.400024414062</v>
       </c>
       <c r="D5" t="n">
-        <v>-1388.759414062501</v>
+        <v>-1375.559707031251</v>
       </c>
       <c r="E5" t="n">
-        <v>-8.144089229071522</v>
+        <v>-8.066682306913826</v>
       </c>
       <c r="F5" t="n">
         <v>12</v>
@@ -572,13 +572,13 @@
         <v>1408.275</v>
       </c>
       <c r="C6" t="n">
-        <v>1329.349975585938</v>
+        <v>1331</v>
       </c>
       <c r="D6" t="n">
-        <v>-473.5501464843746</v>
+        <v>-463.6499999999996</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.604375879289375</v>
+        <v>-5.487209529388788</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
@@ -595,13 +595,13 @@
         <v>316.75</v>
       </c>
       <c r="C7" t="n">
-        <v>235.25</v>
+        <v>243.3000030517578</v>
       </c>
       <c r="D7" t="n">
-        <v>-570.5</v>
+        <v>-514.1499786376953</v>
       </c>
       <c r="E7" t="n">
-        <v>-25.73007103393844</v>
+        <v>-23.18863360639059</v>
       </c>
       <c r="F7" t="n">
         <v>7</v>
@@ -618,13 +618,13 @@
         <v>1492</v>
       </c>
       <c r="C8" t="n">
-        <v>1541.550048828125</v>
+        <v>1607.050048828125</v>
       </c>
       <c r="D8" t="n">
-        <v>247.750244140625</v>
+        <v>575.250244140625</v>
       </c>
       <c r="E8" t="n">
-        <v>3.32104884907004</v>
+        <v>7.711129278024464</v>
       </c>
       <c r="F8" t="n">
         <v>5</v>
@@ -641,13 +641,13 @@
         <v>491.7833333333334</v>
       </c>
       <c r="C9" t="n">
-        <v>480.2000122070312</v>
+        <v>480.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-173.7498168945312</v>
+        <v>-169.25</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.35537081905353</v>
+        <v>-2.294370827261328</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -664,13 +664,13 @@
         <v>828.25</v>
       </c>
       <c r="C10" t="n">
-        <v>849.2000122070312</v>
+        <v>854.5</v>
       </c>
       <c r="D10" t="n">
-        <v>209.5001220703125</v>
+        <v>262.5</v>
       </c>
       <c r="E10" t="n">
-        <v>2.52943099390658</v>
+        <v>3.169332930878358</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
@@ -687,13 +687,13 @@
         <v>113.4008</v>
       </c>
       <c r="C11" t="n">
-        <v>113.5599975585938</v>
+        <v>113.7600021362305</v>
       </c>
       <c r="D11" t="n">
-        <v>7.959877929687536</v>
+        <v>17.96010681152347</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1403848637697007</v>
+        <v>0.3167544992896607</v>
       </c>
       <c r="F11" t="n">
         <v>50</v>
@@ -710,13 +710,13 @@
         <v>69.23</v>
       </c>
       <c r="C12" t="n">
-        <v>67.37000274658203</v>
+        <v>67.75</v>
       </c>
       <c r="D12" t="n">
-        <v>-185.9997253417969</v>
+        <v>-148</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.686692551520972</v>
+        <v>-2.137801531128124</v>
       </c>
       <c r="F12" t="n">
         <v>100</v>
@@ -733,13 +733,13 @@
         <v>1092.9</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.75</v>
+        <v>1007.349975585938</v>
       </c>
       <c r="D13" t="n">
-        <v>-921.5</v>
+        <v>-855.500244140625</v>
       </c>
       <c r="E13" t="n">
-        <v>-8.431695489065788</v>
+        <v>-7.827799836587291</v>
       </c>
       <c r="F13" t="n">
         <v>10</v>
@@ -756,13 +756,13 @@
         <v>846.3</v>
       </c>
       <c r="C14" t="n">
-        <v>835.6500244140625</v>
+        <v>836.5</v>
       </c>
       <c r="D14" t="n">
-        <v>-106.499755859375</v>
+        <v>-98</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.258416115554472</v>
+        <v>-1.157981803143094</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
@@ -779,13 +779,13 @@
         <v>428.7</v>
       </c>
       <c r="C15" t="n">
-        <v>434.1000061035156</v>
+        <v>440.2999877929688</v>
       </c>
       <c r="D15" t="n">
-        <v>81.00009155273438</v>
+        <v>173.9998168945312</v>
       </c>
       <c r="E15" t="n">
-        <v>1.259623537092518</v>
+        <v>2.705852062740553</v>
       </c>
       <c r="F15" t="n">
         <v>15</v>
@@ -802,13 +802,13 @@
         <v>3914.800000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>3971.35009765625</v>
+        <v>4075.449951171875</v>
       </c>
       <c r="D16" t="n">
-        <v>169.6502929687485</v>
+        <v>481.9498535156235</v>
       </c>
       <c r="E16" t="n">
-        <v>1.444520733019554</v>
+        <v>4.103656666288814</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
@@ -825,13 +825,13 @@
         <v>2093.975</v>
       </c>
       <c r="C17" t="n">
-        <v>2458.39990234375</v>
+        <v>2501.85009765625</v>
       </c>
       <c r="D17" t="n">
-        <v>3644.2490234375</v>
+        <v>4078.7509765625</v>
       </c>
       <c r="E17" t="n">
-        <v>17.40349824347234</v>
+        <v>19.47850846625438</v>
       </c>
       <c r="F17" t="n">
         <v>10</v>
@@ -846,13 +846,13 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>167266.851348877</v>
+        <v>168877.5015563965</v>
       </c>
       <c r="D18" t="n">
-        <v>6548.401348876941</v>
+        <v>8159.051556396473</v>
       </c>
       <c r="E18" t="n">
-        <v>4.074455265638102</v>
+        <v>5.076611649998163</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">

--- a/stock_portfolio_report.xlsx
+++ b/stock_portfolio_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Average Purchase Price (INR)</t>
+          <t>Purchase Price (INR)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,406 +457,26 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Gain/Loss (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Quantity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Purchase Price (INR)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245.5980392156863</v>
+        <v>160718.45</v>
       </c>
       <c r="C2" t="n">
-        <v>292.5</v>
+        <v>170123.8584289551</v>
       </c>
       <c r="D2" t="n">
-        <v>2392</v>
+        <v>9405.408428955066</v>
       </c>
       <c r="E2" t="n">
-        <v>19.09704203425013</v>
-      </c>
-      <c r="F2" t="n">
-        <v>51</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HDFCBANK.NS</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1452.05</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1750.050048828125</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2980.00048828125</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.52271263579939</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HINDUNILVR.NS</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2346.85</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2511</v>
-      </c>
-      <c r="D4" t="n">
-        <v>820.75</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.994481965187378</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RELIANCE.NS</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1421.03</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1306.400024414062</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-1375.559707031251</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-8.066682306913826</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ADANIPORTS.NS</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1408.275</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1331</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-463.6499999999996</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-5.487209529388788</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>BHEL.NS</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>316.75</v>
-      </c>
-      <c r="C7" t="n">
-        <v>243.3000030517578</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-514.1499786376953</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-23.18863360639059</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CDSL.NS</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1492</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1607.050048828125</v>
-      </c>
-      <c r="D8" t="n">
-        <v>575.250244140625</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.711129278024464</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ITC.NS</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>491.7833333333334</v>
-      </c>
-      <c r="C9" t="n">
-        <v>480.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-169.25</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-2.294370827261328</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SBIN.NS</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>828.25</v>
-      </c>
-      <c r="C10" t="n">
-        <v>854.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.169332930878358</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SJVN.NS</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>113.4008</v>
-      </c>
-      <c r="C11" t="n">
-        <v>113.7600021362305</v>
-      </c>
-      <c r="D11" t="n">
-        <v>17.96010681152347</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3167544992896607</v>
-      </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SUZLON.NS</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>69.23</v>
-      </c>
-      <c r="C12" t="n">
-        <v>67.75</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-148</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-2.137801531128124</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>TATACONSUM.NS</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1092.9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1007.349975585938</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-855.500244140625</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-7.827799836587291</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>TATAMOTORS.NS</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>846.3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>836.5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-98</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-1.157981803143094</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>TATAPOWER.NS</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>428.7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>440.2999877929688</v>
-      </c>
-      <c r="D15" t="n">
-        <v>173.9998168945312</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.705852062740553</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>TCS.NS</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3914.800000000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4075.449951171875</v>
-      </c>
-      <c r="D16" t="n">
-        <v>481.9498535156235</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.103656666288814</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TVSMOTOR.NS</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2093.975</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2501.85009765625</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4078.7509765625</v>
-      </c>
-      <c r="E17" t="n">
-        <v>19.47850846625438</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>168877.5015563965</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8159.051556396473</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5.076611649998163</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>160718.45</v>
+        <v>5.852102499093953</v>
       </c>
     </row>
   </sheetData>

--- a/stock_portfolio_report.xlsx
+++ b/stock_portfolio_report.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160718.45</v>
+        <v>161424.2</v>
       </c>
       <c r="C2" t="n">
-        <v>170123.8584289551</v>
+        <v>170867.7984161377</v>
       </c>
       <c r="D2" t="n">
-        <v>9405.408428955066</v>
+        <v>9443.598416137684</v>
       </c>
       <c r="E2" t="n">
-        <v>5.852102499093953</v>
+        <v>5.850175138633293</v>
       </c>
     </row>
   </sheetData>

--- a/stock_portfolio_report.xlsx
+++ b/stock_portfolio_report.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161424.2</v>
+        <v>228848.7</v>
       </c>
       <c r="C2" t="n">
-        <v>170867.7984161377</v>
+        <v>253157.1501617432</v>
       </c>
       <c r="D2" t="n">
-        <v>9443.598416137684</v>
+        <v>24308.45016174315</v>
       </c>
       <c r="E2" t="n">
-        <v>5.850175138633293</v>
+        <v>10.62206172101618</v>
       </c>
     </row>
   </sheetData>

--- a/stock_portfolio_report.xlsx
+++ b/stock_portfolio_report.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228848.7</v>
+        <v>228777.2</v>
       </c>
       <c r="C2" t="n">
         <v>253157.1501617432</v>
       </c>
       <c r="D2" t="n">
-        <v>24308.45016174315</v>
+        <v>24379.95016174315</v>
       </c>
       <c r="E2" t="n">
-        <v>10.62206172101618</v>
+        <v>10.65663456049954</v>
       </c>
     </row>
   </sheetData>

--- a/stock_portfolio_report.xlsx
+++ b/stock_portfolio_report.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228777.2</v>
+        <v>233673.2</v>
       </c>
       <c r="C2" t="n">
-        <v>253157.1501617432</v>
+        <v>258116.7500762939</v>
       </c>
       <c r="D2" t="n">
-        <v>24379.95016174315</v>
+        <v>24443.55007629396</v>
       </c>
       <c r="E2" t="n">
-        <v>10.65663456049954</v>
+        <v>10.46057060728144</v>
       </c>
     </row>
   </sheetData>

--- a/stock_portfolio_report.xlsx
+++ b/stock_portfolio_report.xlsx
@@ -470,13 +470,13 @@
         <v>233673.2</v>
       </c>
       <c r="C2" t="n">
-        <v>258116.7500762939</v>
+        <v>256994.5010070801</v>
       </c>
       <c r="D2" t="n">
-        <v>24443.55007629396</v>
+        <v>23321.3010070801</v>
       </c>
       <c r="E2" t="n">
-        <v>10.46057060728144</v>
+        <v>9.980306259802193</v>
       </c>
     </row>
   </sheetData>

--- a/stock_portfolio_report.xlsx
+++ b/stock_portfolio_report.xlsx
@@ -470,13 +470,13 @@
         <v>233673.2</v>
       </c>
       <c r="C2" t="n">
-        <v>256994.5010070801</v>
+        <v>253337.2521057129</v>
       </c>
       <c r="D2" t="n">
-        <v>23321.3010070801</v>
+        <v>19664.05210571291</v>
       </c>
       <c r="E2" t="n">
-        <v>9.980306259802193</v>
+        <v>8.415193571925625</v>
       </c>
     </row>
   </sheetData>

--- a/stock_portfolio_report.xlsx
+++ b/stock_portfolio_report.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233673.2</v>
+        <v>246169.15</v>
       </c>
       <c r="C2" t="n">
-        <v>253337.2521057129</v>
+        <v>265882.5480957031</v>
       </c>
       <c r="D2" t="n">
-        <v>19664.05210571291</v>
+        <v>19713.39809570313</v>
       </c>
       <c r="E2" t="n">
-        <v>8.415193571925625</v>
+        <v>8.00807009964617</v>
       </c>
     </row>
   </sheetData>
